--- a/dados/Data_HousePrice_Area.xlsx
+++ b/dados/Data_HousePrice_Area.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u009165/Documents/MeuCaderno/dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olga\OneDrive - IPT\Área de Trabalho\BigData Analytics\00_2 Material Big Data Analytics 2022\05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84A49C5-EBB4-844E-983E-4E3B4A7834B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="4423" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cenario 1" sheetId="1" r:id="rId1"/>
     <sheet name="Cenario 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,12 +74,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
@@ -108,351 +99,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Square Feet Line Fit  Plot</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>House Price</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Cenario 1'!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1875</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1550</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2350</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2450</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1425</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Cenario 1'!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>405</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>319</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>255</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7596-A540-B146-1635BBD391B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Predicted House Price</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Cenario 1'!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1875</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1550</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2350</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2450</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1425</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Cenario 1'!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7596-A540-B146-1635BBD391B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1792157039"/>
-        <c:axId val="1788732063"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1792157039"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Square Feet</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1788732063"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1788732063"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>House Price</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1792157039"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>82311</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>82311</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>98450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB4B3093-1E6B-3F47-B067-911A7385A70A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -717,27 +363,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="258" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -745,7 +383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1400</v>
       </c>
@@ -753,7 +391,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1600</v>
       </c>
@@ -761,7 +399,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1700</v>
       </c>
@@ -769,7 +407,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1875</v>
       </c>
@@ -777,7 +415,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1100</v>
       </c>
@@ -785,7 +423,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1550</v>
       </c>
@@ -793,7 +431,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2350</v>
       </c>
@@ -801,7 +439,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2450</v>
       </c>
@@ -809,7 +447,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1425</v>
       </c>
@@ -817,139 +455,13 @@
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1700</v>
       </c>
       <c r="B11">
         <v>255</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="243" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1400</v>
-      </c>
-      <c r="B2">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1800</v>
-      </c>
-      <c r="B3">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1700</v>
-      </c>
-      <c r="B4">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1875</v>
-      </c>
-      <c r="B5">
-        <v>308</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1200</v>
-      </c>
-      <c r="B6">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1480</v>
-      </c>
-      <c r="B7">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2350</v>
-      </c>
-      <c r="B8">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2100</v>
-      </c>
-      <c r="B9">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2000</v>
-      </c>
-      <c r="B10">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1700</v>
-      </c>
-      <c r="B11">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -957,7 +469,353 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="13" max="13" width="13.3046875" customWidth="1"/>
+    <col min="14" max="14" width="14.15234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1400</v>
+      </c>
+      <c r="B2">
+        <v>245</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1800</v>
+      </c>
+      <c r="B3">
+        <v>312</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1700</v>
+      </c>
+      <c r="B4">
+        <v>279</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1875</v>
+      </c>
+      <c r="B5">
+        <v>308</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1200</v>
+      </c>
+      <c r="B6">
+        <v>199</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1480</v>
+      </c>
+      <c r="B7">
+        <v>219</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>2350</v>
+      </c>
+      <c r="B8">
+        <v>405</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>2100</v>
+      </c>
+      <c r="B9">
+        <v>324</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>2000</v>
+      </c>
+      <c r="B10">
+        <v>319</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1700</v>
+      </c>
+      <c r="B11">
+        <v>255</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="13:21" x14ac:dyDescent="0.4">
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="13:21" x14ac:dyDescent="0.4">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="13:21" x14ac:dyDescent="0.4">
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="13:21" x14ac:dyDescent="0.4">
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="13:21" x14ac:dyDescent="0.4">
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+    </row>
+    <row r="22" spans="13:21" x14ac:dyDescent="0.4">
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+    </row>
+    <row r="23" spans="13:21" x14ac:dyDescent="0.4">
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100650D4E41FE4360418A47F56C40745A91" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="506242836f50dbf06c395ae2832af610">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f5974154-20f5-4267-b015-1dc31c347b17" xmlns:ns4="65a0ad0d-aef6-4631-9e8a-63032fe3eb72" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86ca707c66489a6724b08d8d09aa1a84" ns3:_="" ns4:_="">
     <xsd:import namespace="f5974154-20f5-4267-b015-1dc31c347b17"/>
@@ -1186,22 +1044,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41855095-B0BE-4F03-9166-51BB946F8366}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="65a0ad0d-aef6-4631-9e8a-63032fe3eb72"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f5974154-20f5-4267-b015-1dc31c347b17"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A4B4D79-1235-4D4D-ABC0-2A680DFA9D37}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42191746-E015-4245-82A7-25C4878DBFDE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1218,29 +1086,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41855095-B0BE-4F03-9166-51BB946F8366}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="65a0ad0d-aef6-4631-9e8a-63032fe3eb72"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f5974154-20f5-4267-b015-1dc31c347b17"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A4B4D79-1235-4D4D-ABC0-2A680DFA9D37}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>